--- a/biology/Microbiologie/Apicomplexa/Apicomplexa.xlsx
+++ b/biology/Microbiologie/Apicomplexa/Apicomplexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les apicomplexes (Apicomplexa), ou sporozoaires (Sporozoa), sont un embranchement d'eucaryotes unicellulaires, tous parasites d'animaux et certains, de l'être humain. Les Plasmodium, responsables du paludisme, sont un exemple d'apicomplexes.
 Les apicomplexes ne possèdent pas de flagelle, sauf à certains moments du cycle vital. Ce cycle fait généralement intervenir plusieurs hôtes. La présence d'un ADN chloroplastique vestigial chez certaines espèces laisse penser que ces organismes dérivent d'un ancêtre photosynthétique, ou qu'ils ont acquis et recyclé certains gènes d'un organisme photosynthétique.
@@ -512,7 +524,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle de vie est constitué par une alternance de générations haploïdes et diploïdes, chacune pouvant se multiplier par schizogonie.
 La reproduction sexuée fait intervenir un microgamète mâle qui fusionne avec un macrogamète femelle. Un zygote le plus souvent flagellé est ainsi obtenu. Celui-ci se transforme ensuite en oocyste, forme de résistance car pourvu d'une paroi épaisse. Lorsque les conditions sont réunies, la méiose puis la sporogonie (nombreuses divisions cellulaires) ont lieu, donnant naissance à des formes infectieuses haploïdes (les sporozoïtes).
@@ -544,7 +558,9 @@
           <t>Espèces d'Apicomplexa</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agent de la babésiose
 Babesia canis
@@ -828,7 +844,9 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† Paleohaimatus calabresi</t>
         </is>
